--- a/backend/web/templates/template_animal_sick_list.xlsx
+++ b/backend/web/templates/template_animal_sick_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OSPanel\domains\FarmManager\backend\web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B2E15-9AE3-454C-9F62-0D3F39555675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Список больных животных" sheetId="1" r:id="rId1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +136,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -228,23 +227,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,26 +262,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
